--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF35D455-5BDC-4908-B558-A73A70C40402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C63EA-EAB7-429D-8937-F608B667A938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5A863B6-0885-4A3F-B704-8BE679ECA649}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="sources" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sources</t>
   </si>
@@ -100,6 +99,12 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>https://meteostat.net/en/place/co/medellin?s=80110&amp;t=2021-10-31/2024-11-16</t>
+  </si>
+  <si>
+    <t>temperature + rainfall</t>
   </si>
 </sst>
 </file>
@@ -507,16 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0B344-37D9-4968-BA24-6478322552E0}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -621,6 +627,17 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -631,6 +648,7 @@
     <hyperlink ref="D8" r:id="rId4" location="/informacionSerie/1/Tasa%20de%20cambio%20del%20peso%20colombiano/Tasa%20de%20cambio%20Representativa%20del%20Mercado%20%28TCRM%29" xr:uid="{7F2229D5-C6DB-491F-8845-1092873BA912}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{ACB9D6DD-3EE1-47E5-836D-602BE74AD451}"/>
     <hyperlink ref="D9" r:id="rId6" xr:uid="{CABD915B-AA76-4919-923D-78A3538182AD}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{C73DF7C1-602E-4B35-94D9-A277E16C5CB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
